--- a/FASE_2_SPRINT_3/PRUEBAS_TECNICAS/Monto Mitigador.xlsx
+++ b/FASE_2_SPRINT_3/PRUEBAS_TECNICAS/Monto Mitigador.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbarahona\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIGANEM\GITHUB\SIGANEM\FASE_2_SPRINT_3\PRUEBAS_TECNICAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="923"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="923" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Caso 1" sheetId="6" r:id="rId1"/>
-    <sheet name="Caso 2" sheetId="10" r:id="rId2"/>
-    <sheet name="Caso 3" sheetId="13" r:id="rId3"/>
-    <sheet name="Caso 4" sheetId="14" r:id="rId4"/>
-    <sheet name="Caso 5" sheetId="15" r:id="rId5"/>
+    <sheet name="Caso 2 (2)" sheetId="16" r:id="rId2"/>
+    <sheet name="Caso 2" sheetId="10" r:id="rId3"/>
+    <sheet name="Caso 3" sheetId="13" r:id="rId4"/>
+    <sheet name="Caso 4" sheetId="14" r:id="rId5"/>
+    <sheet name="Caso 5" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="86">
   <si>
     <t>Garantía Fideicometida Real</t>
   </si>
@@ -39,15 +40,9 @@
     <t>Fideicomiso BCR</t>
   </si>
   <si>
-    <t>BCR07042016001</t>
-  </si>
-  <si>
     <t>Fideicomiso</t>
   </si>
   <si>
-    <t>FISO001</t>
-  </si>
-  <si>
     <t>Fecha Constitución</t>
   </si>
   <si>
@@ -159,15 +154,6 @@
     <t>Gravámenes</t>
   </si>
   <si>
-    <t>Grado 1</t>
-  </si>
-  <si>
-    <t>Grado 5</t>
-  </si>
-  <si>
-    <t>Grado 3</t>
-  </si>
-  <si>
     <t>Monto Mitigador Tipo Bien 2 y Clase "Cédula Hipotecaria"</t>
   </si>
   <si>
@@ -195,9 +181,6 @@
     <t>Monto Póliza Colonizado</t>
   </si>
   <si>
-    <t>Grado 4</t>
-  </si>
-  <si>
     <t>Cédulas</t>
   </si>
   <si>
@@ -234,9 +217,6 @@
     <t>B1</t>
   </si>
   <si>
-    <t>Grado 2</t>
-  </si>
-  <si>
     <t>Garantía Fideicometida Valor</t>
   </si>
   <si>
@@ -280,6 +260,33 @@
   </si>
   <si>
     <t>Valor Ajustado Garantia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>BCR03312016018</t>
+  </si>
+  <si>
+    <t>Monto Mitigador Tipo Bien 2 y Clase "Hipoteca Común"</t>
+  </si>
+  <si>
+    <t>BCR04012016010</t>
+  </si>
+  <si>
+    <t>BCR04012016006</t>
+  </si>
+  <si>
+    <t>BCR04042016040</t>
+  </si>
+  <si>
+    <t>BCR13052016008</t>
+  </si>
+  <si>
+    <t>0526</t>
+  </si>
+  <si>
+    <t>BCR13052016009</t>
   </si>
 </sst>
 </file>
@@ -485,7 +492,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -518,18 +532,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,7 +558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -815,11 +822,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
@@ -828,420 +835,411 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>42467</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="24">
+        <v>42620</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="4">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4">
         <f>C6+60</f>
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4">
         <v>42461</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="4">
-        <v>42856</v>
-      </c>
-    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="5">
-        <v>5741000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="3">
+        <v>11214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="3">
-        <v>101011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="A17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="18"/>
       <c r="C17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="16"/>
+      <c r="A18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="5">
-        <v>23000000</v>
+        <v>147850260</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="16"/>
+      <c r="A19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="16"/>
+      <c r="A20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18"/>
       <c r="C20" s="5">
         <f>SUM(C18:C19)</f>
-        <v>23000000</v>
+        <v>147850260</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="16"/>
+      <c r="A21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18"/>
       <c r="C21" s="5">
-        <v>23106321</v>
+        <v>147850260</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="16"/>
+      <c r="A22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18"/>
       <c r="C22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="16"/>
+      <c r="A23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="5">
         <f>SUM(C21:C22)</f>
-        <v>23106321</v>
+        <v>147850260</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="4">
+        <v>42605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="4">
+        <v>42605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="4">
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="10">
+        <f>DATE(YEAR(C24),MONTH(C24)+650,DAY(C24))</f>
+        <v>62389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="4">
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="10">
+        <f>DATE(YEAR(C25),MONTH(C25)+100,DAY(C25))</f>
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="10">
-        <v>42490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="10">
-        <v>42442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="16"/>
+      <c r="A30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="18"/>
       <c r="C30" s="8">
-        <f>(C20*C36)/100</f>
-        <v>17250000</v>
+        <v>102600000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="16"/>
+      <c r="A31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18"/>
       <c r="C31" s="5">
         <f>(C21*C34)</f>
-        <v>9242528.4000000004</v>
+        <v>118280208</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="27">
+      <c r="A32" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="16">
         <f>C31-SUM(C44:C46)</f>
-        <v>7942528.4000000004</v>
+        <v>118280208</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="17">
+        <f>C32*C37</f>
+        <v>118280208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29">
-        <f>C32*C37</f>
-        <v>7942528.4000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="16"/>
+      <c r="A38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="18"/>
       <c r="C38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="4">
-        <v>42444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="16"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="5">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="16"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="16"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="5">
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,10 +1311,10 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
@@ -1324,481 +1322,1029 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>42467</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="24">
+        <v>42620</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="4">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4">
         <f>C6+60</f>
-        <v>42461</v>
+        <v>42521</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="4">
-        <v>42856</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="5">
+        <v>13357500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="3">
+        <v>252525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="5">
+        <v>15050000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="5">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="5">
+        <f>SUM(C18:C19)</f>
+        <v>20550000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="5">
+        <v>15050000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="5">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="5">
+        <f>SUM(C21:C22)</f>
+        <v>20550000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="4">
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="4">
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="10">
+        <f>DATE(YEAR(C24),MONTH(C24)+650,DAY(C24))</f>
+        <v>62009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="10">
+        <f>DATE(YEAR(C25),MONTH(C25)+13,DAY(C25))</f>
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="10">
+        <f>DATE(YEAR(C26),MONTH(C26)+100,DAY(C26))</f>
+        <v>65054</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="10">
+        <f>DATE(YEAR(C27),MONTH(C27)+200,DAY(C27))</f>
+        <v>48707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="8">
+        <v>13357500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="5">
+        <f>(C21*C36)+(C22*C37)</f>
+        <v>16440000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="16">
+        <f>C33-SUM(C50:C51)</f>
+        <v>16440000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="17">
+        <f>C34*C39</f>
+        <v>16440000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="4">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="5">
+        <v>69965160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>42620</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="4">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="4">
+        <f>C6+60</f>
+        <v>42444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4">
+        <v>42493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="5">
-        <v>45000000</v>
+        <v>33995000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="16"/>
+      <c r="A12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18"/>
       <c r="C12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="3">
+        <v>557788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="3">
-        <v>202021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="A17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="18"/>
       <c r="C17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="5">
+        <v>17550000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="5">
+        <v>34750000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="5">
-        <v>18000100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="5">
-        <v>36500000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5">
         <f>SUM(C18:C19)</f>
-        <v>54500100</v>
+        <v>52300000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="5">
+        <v>17550000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="5">
+        <v>34750000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="5">
-        <v>18050000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="5">
-        <v>35980000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="5">
         <f>SUM(C21:C22)</f>
-        <v>54030000</v>
+        <v>52300000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="4">
+        <v>42542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="4">
+        <v>42542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="4">
-        <v>42397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="10">
+        <f>DATE(YEAR(C24),MONTH(C24)+650,DAY(C24))</f>
+        <v>62326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="10">
+        <f>DATE(YEAR(C25),MONTH(C25)+13,DAY(C25))</f>
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="4">
-        <v>42429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="10">
+        <f>DATE(YEAR(C26),MONTH(C26)+100,DAY(C26))</f>
+        <v>65370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="10">
+        <f>DATE(YEAR(C27),MONTH(C27)+200,DAY(C27))</f>
+        <v>49024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="10">
-        <v>42457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="10">
-        <v>42456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="10">
-        <v>42455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="10">
-        <v>42476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="16"/>
+      <c r="A32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="18"/>
       <c r="C32" s="8">
-        <f>(C20*C38)/100</f>
-        <v>32700060</v>
+        <v>33995000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="16"/>
+      <c r="A33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="18"/>
       <c r="C33" s="5">
         <f>(C21*C36)+(C22*C37)</f>
-        <v>28784000</v>
+        <v>27940000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="27">
+      <c r="A34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="16">
         <f>IF(C33&lt;=C53,C33,C53)-SUM(C50:C51)</f>
-        <v>24834000</v>
+        <v>27940000</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="17">
+        <f>C34*C39</f>
+        <v>27940000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29">
-        <f>C34*C39</f>
-        <v>22847280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="11">
+      <c r="B38" s="18"/>
+      <c r="C38" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="4">
+        <v>42399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="11">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="3" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="4">
-        <v>42489</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="5">
-        <v>45000000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="5">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="5">
-        <v>950000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="5">
-        <v>36000000</v>
+        <v>36750000</v>
       </c>
     </row>
   </sheetData>
@@ -1862,15 +2408,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
@@ -1878,459 +2424,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>42467</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="24">
+        <v>42620</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="4">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4">
         <f>C6+60</f>
-        <v>42461</v>
+        <v>42524</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="4">
-        <v>42856</v>
+        <v>42494</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="5">
+        <v>25501560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="5">
-        <v>12200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16"/>
+      <c r="A13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="3">
-        <v>303031</v>
+        <v>652612</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="16"/>
+      <c r="A16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="18"/>
       <c r="C16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="5">
+        <v>42502600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="5">
-        <v>12200000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="5">
         <f>SUM(C17:C18)</f>
-        <v>12200000</v>
+        <v>42502600</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="5">
-        <v>10950000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5">
         <f>SUM(C20:C21)</f>
-        <v>10950000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="16"/>
+      <c r="A23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="4">
-        <v>42418</v>
+        <v>42597</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="16"/>
+      <c r="A24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="18"/>
       <c r="C24" s="4">
-        <v>42429</v>
+        <v>42597</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="18"/>
+      <c r="A25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="10">
-        <v>42478</v>
+        <f>DATE(YEAR(C23),MONTH(C23)+300,DAY(C23))</f>
+        <v>51728</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="18"/>
+      <c r="A26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="21"/>
       <c r="C26" s="10">
-        <v>42489</v>
+        <f>DATE(YEAR(C24),MONTH(C24)+300,DAY(C24))</f>
+        <v>51728</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="16"/>
+      <c r="A28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="18"/>
       <c r="C28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="16"/>
+      <c r="A29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="18"/>
       <c r="C29" s="8">
-        <f>(C19*C35)/100</f>
-        <v>9150000</v>
+        <v>25501560</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="16"/>
+      <c r="A30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="18"/>
       <c r="C30" s="5">
         <f>C21*C34</f>
-        <v>7117500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="27">
+      <c r="A31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="16">
         <f>C30-SUM(C50:C51)</f>
-        <v>5992500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="17">
+        <f>C31*C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29">
-        <f>C31*C36</f>
-        <v>1797750</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="13">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="13">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="16"/>
+      <c r="A38" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="18"/>
       <c r="C38" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="16"/>
+      <c r="A39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="16"/>
+      <c r="A40" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="18"/>
       <c r="C40" s="4">
-        <v>42470</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="4">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="5">
+        <v>16505881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="4">
-        <v>42489</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="5">
-        <v>45000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-    </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="16"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="5">
-        <v>950000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="16"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="5">
-        <v>175000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2392,15 +2933,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
@@ -2408,248 +2949,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>42467</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="24">
+        <v>42620</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="4">
+        <v>42503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4">
         <f>C6+60</f>
-        <v>42461</v>
+        <v>42563</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="4">
-        <v>42856</v>
+        <v>42522</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="16"/>
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="5">
-        <v>12200000</v>
+        <v>3248.34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="3">
-        <v>404010</v>
+      <c r="A12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="A15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="5">
-        <v>15000000</v>
+        <v>324834</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="16"/>
+      <c r="A16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="18"/>
       <c r="C16" s="5">
-        <v>12200000</v>
+        <v>135347.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="A17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="18"/>
       <c r="C17" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29">
+      <c r="A19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="17">
         <f>C20*C23</f>
-        <v>5557499.9999999991</v>
+        <v>243625.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="27">
+      <c r="A20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="16">
         <f>C15*C21</f>
-        <v>9750000</v>
+        <v>243625.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="13">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="13">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="16"/>
+      <c r="A24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="18"/>
       <c r="C24" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="16"/>
+      <c r="A25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="18"/>
       <c r="C25" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="A27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2686,15 +3223,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
@@ -2702,283 +3239,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="24">
         <v>42467</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="4">
+        <v>42503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4">
         <f>C6+60</f>
-        <v>42461</v>
+        <v>42563</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="4">
-        <v>42856</v>
+        <v>42523</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="16"/>
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="5">
-        <v>12200000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="3">
-        <v>404012</v>
+      <c r="A12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="12">
+        <v>99010199</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="A15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="5">
-        <v>10000000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="18"/>
+      <c r="A16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="21"/>
       <c r="C16" s="5">
         <f>IF(C14=1,C15,C15*C31)</f>
-        <v>10000000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="A17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="18"/>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="16"/>
+      <c r="A18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="5">
-        <v>7900</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="18"/>
+      <c r="A19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="5">
         <f>IF(C17=1,C18,C18*C31)</f>
-        <v>4029000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29">
+      <c r="A21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="17">
         <f>C22*C25</f>
-        <v>1964137.5</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="27">
+      <c r="A22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="16">
         <f>IF(C16&lt;=C19,C16,C19)*C23</f>
-        <v>2618850</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="13">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="13">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="16"/>
+      <c r="A26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="18"/>
       <c r="C26" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="16"/>
+      <c r="A27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="18"/>
       <c r="C27" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="A29" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="16"/>
+      <c r="A31" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="18"/>
       <c r="C31" s="5">
-        <v>510</v>
+        <v>541.39</v>
       </c>
     </row>
   </sheetData>
